--- a/POSTGRESQL/06_CONTENT.xlsx
+++ b/POSTGRESQL/06_CONTENT.xlsx
@@ -20,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,14 +428,2465 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>slug</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>priority</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>published_at</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>view_count</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ai_sentiment</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>d2f87346-a4b5-4f2a-8666-b1bdd5adc2e4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bali-to-implement-financial-screening-for-tourists-starting-from-march-1-e0768d</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1&amp;nbsp;&amp;nbsp;Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2026-01-04T16:28:48+00:00</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>59417246-d5c0-48b3-9f64-6614c9cdb529</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bali-to-implement-financial-screening-for-tourists-starting-from-march-1-b16787</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1&amp;nbsp;&amp;nbsp;Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2026-01-04T16:28:48+00:00</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>b2b7f1b2-ca61-45b8-bd67-99e46a2103ea</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bali-to-implement-financial-screening-for-tourists-starting-from-march-1-6aca67</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1&amp;nbsp;&amp;nbsp;Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2026-01-04T16:28:48+00:00</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1a02ec08-fb4b-4758-8baa-ed53315c4226</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bali-to-implement-financial-screening-for-tourists-starting-from-march-1-8182c8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1&amp;nbsp;&amp;nbsp;Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2026-01-04T16:28:48+00:00</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>acb6a5ed-f188-4382-aaae-f5e6b69ca169</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bali-to-implement-financial-screening-for-tourists-starting-from-march-1-04f5e6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1&amp;nbsp;&amp;nbsp;Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2026-01-04T16:28:48+00:00</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>243612fe-801d-47b9-8f56-1d7535ef9dbb</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bali-to-implement-financial-screening-for-tourists-starting-from-march-1-ad1c43</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Bali to Implement Financial Screening for Tourists Starting from March 1&amp;nbsp;&amp;nbsp;Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Traveling Lifestyle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2026-01-04T16:28:48+00:00</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>773b765b-d60d-4cc7-85ce-89f076a5b6f1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>New Restaurant Opens at InterContinental Bali Sanur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>new-restaurant-opens-at-intercontinental-bali-sanur-645569</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>New restaurant Pier Eight opens at InterContinental Bali Sanur. Limited details available from source material.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Indonesia Expat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2026-01-04T05:34:24+00:00</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ec4e2748-3868-4f89-87f8-6cfd8dc1c4bd</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Balis tourist tax brings US$22M, still short of goal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>balis-tourist-tax-brings-us22m-still-short-of-goal-ec12d4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Balis tourist tax brings US$22M, still short of goal&amp;nbsp;&amp;nbsp;ANTARA News</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ANTARA News</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2026-01-03T18:15:14.509067+00:00</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aedd65cf-30f6-4bad-b82d-72369057cc07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-fde49c</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2026-01-03T18:15:13.926929+00:00</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>98e1100e-b0d7-4408-ae9b-d905b5f709de</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bali Plans to Check Foreign Tourists’ Savings Under New 2026 Policy</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bali-plans-to-check-foreign-tourists-savings-under-new-2026-policy-96daf0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bali Plans to Check Foreign Tourists’ Savings Under New 2026 Policy&amp;nbsp;&amp;nbsp;Indonesia Expat</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Indonesia Expat</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2026-01-03T18:15:13.268556+00:00</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>b5bcadaf-b6f3-465b-9f7f-a5e1c87daae1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Drug mule Brits check in at Business Class desk to fly home after dodging Bali execution</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>drug-mule-brits-check-in-at-business-class-desk-to-fly-home-after-dodging-bali-execution-4ea5b2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Drug mule Brits check in at Business Class desk to fly home after dodging Bali execution&amp;nbsp;&amp;nbsp;The Mirror</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>The Mirror</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2026-01-03T18:15:12.685841+00:00</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>d2c82f86-13fc-4ba6-96b2-90923db7d554</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bali Business Networking at Afterglow Rooftop Kitchen &amp; Bar in TRIBE Hotel Kuta</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bali-business-networking-at-afterglow-rooftop-kitchen-bar-in-tribe-hotel-kuta-1230a0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Bali Business Networking at Afterglow Rooftop Kitchen &amp; Bar in TRIBE Hotel Kuta&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2026-01-03T18:15:12.118083+00:00</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>53c5f044-8b7e-4687-ab6d-b112af2059dc</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Test News Item for Bali Intel Feed</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>test-news-item-for-bali-intel-feed-de8437</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Test Source</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>business</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2026-01-03T18:14:14.791573+00:00</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>af2576bf-cb0a-4498-a161-72dbc442407f</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Indonesian Minister Warns Unguided AI Risks Dehumanization - Tempo.co English</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>indonesian-minister-warns-unguided-ai-risks-dehumanization---tempoco-english-3bcb77</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Indonesian Minister Warns Unguided AI Risks Dehumanization&amp;nbsp;&amp;nbsp;Tempo.co English</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Tempo.co English</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2026-01-03T08:45:17+00:00</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>f2508948-7e61-4b1a-9a31-da8e752685f9</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Beware of Deportation! Don't Dare Before Understanding the Rules of Foreign Nationals Opening a Business in Bali Terbaru - VOI.id</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>beware-of-deportation-dont-dare-before-understanding-the-rules-of-foreign-nationals-opening-a-business-in-bali-terbaru---voiid-73a1f5</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Beware of Deportation! Don't Dare Before Understanding the Rules of Foreign Nationals Opening a Business in Bali Terbaru&amp;nbsp;&amp;nbsp;VOI.id</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>VOI.id</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2026-01-02T22:03:54+00:00</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2a6bcdae-8e60-40d5-bd57-00850b46e2ad</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Bali Social Networking: Sundown Social Circle at Rooftop LUMINOR Hotel Legian Seminyak</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bali-social-networking-sundown-social-circle-at-rooftop-luminor-hotel-legian-seminyak-8ba3b6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Bali Social Networking: Sundown Social Circle at Rooftop LUMINOR Hotel Legian Seminyak&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2026-01-02T12:00:39+00:00</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>0f431dc3-f35b-4ad5-ae86-57a5556acd28</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Explainer: What’s the Difference Between Indonesia’s Golden Visa and GCI?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>explainer-whats-the-difference-between-indonesias-golden-visa-and-gci-bcf533</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Explainer: What’s the Difference Between Indonesia’s Golden Visa and GCI?&amp;nbsp;&amp;nbsp;Jakarta Globe</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Jakarta Globe</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2026-01-02T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>25cd2cda-b0e5-415b-a314-7c40031e074c</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Explainer: What’s the Difference Between Indonesia’s Golden Visa and GCI?</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>explainer-whats-the-difference-between-indonesias-golden-visa-and-gci-2f64d2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Explainer: What’s the Difference Between Indonesia’s Golden Visa and GCI?&amp;nbsp;&amp;nbsp;Jakarta Globe</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jakarta Globe</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2026-01-02T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ed9c998b-4f13-4950-8c0a-c3873bb62570</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Explainer: What’s the Difference Between Indonesia’s Golden Visa and GCI?</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>explainer-whats-the-difference-between-indonesias-golden-visa-and-gci-4cb780</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Explainer: What’s the Difference Between Indonesia’s Golden Visa and GCI?&amp;nbsp;&amp;nbsp;Jakarta Globe</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jakarta Globe</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2026-01-02T10:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6a087912-1f34-4b07-a457-1bc12f18f1cc</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bali Plans to Check Foreign Tourists’ Savings Under New 2026 Policy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>bali-plans-to-check-foreign-tourists-savings-under-new-2026-policy-e38c17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Bali Plans to Check Foreign Tourists’ Savings Under New 2026 Policy&amp;nbsp;&amp;nbsp;Indonesia Expat</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Indonesia Expat</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2026-01-02T08:37:13+00:00</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>45a273b3-44c6-4b2a-8b6e-14a43b4b7f99</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Bali May Require Tourists to Prove Minimum Savings in 2026</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>bali-may-require-tourists-to-prove-minimum-savings-in-2026-22186b</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bali proposes requiring foreign tourists to prove sufficient savings in 2026. Proposal stage only—no official amount or enforcement mechanism confirmed. Expats with valid visas unlikely to be affected.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Indonesia Expat</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2026-01-02T08:37:13+00:00</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>8f3cd8b6-36ef-4469-83dc-f8b67a470070</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Police Investigate Fire That Destroyed 10 Villas in Bali on New Year’s Day</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>police-investigate-fire-that-destroyed-10-villas-in-bali-on-new-years-day-66b567</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Police Investigate Fire That Destroyed 10 Villas in Bali on New Year’s Day&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2026-01-02T03:03:28+00:00</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>0f151f5c-56ce-4e31-be90-fd2499e122e1</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-955169</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-12-31T06:03:50+00:00</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>e735f21d-0f46-45b1-b3f8-27eff7319169</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-19765d</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-12-31T06:03:50+00:00</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ba29a2f4-0112-415f-ace4-b1eb3ccc6332</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-357823</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-12-31T06:03:50+00:00</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>fabe2344-be12-4371-9df9-ad29f083e636</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-7b7eb7</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-12-31T06:03:50+00:00</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>aefa89dd-46b8-4373-a1d7-c4e0bbd85241</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-bbe7a2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-12-31T06:03:50+00:00</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>411a1215-1b4d-416c-bd5c-837ec9e2403d</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-9e5daf</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-12-31T06:03:50+00:00</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>8b3715df-e1d7-4f6d-ade0-29f7e6dc85ff</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>bali-in-2025-recap-of-popular-news-that-happened-on-the-island-e47dc2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bali in 2025: Recap of Popular News That Happened on The Island&amp;nbsp;&amp;nbsp;Social Expat</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Social Expat</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-12-31T06:03:50+00:00</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>c3c9dab8-4f04-44c5-abff-102f17d93b6f</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue - Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>indonesias-digital-economy-generates-27-billion-usb-in-tax-revenue---vietnam-vietnamplus-cece7a</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue&amp;nbsp;&amp;nbsp;Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-12-30T04:31:34+00:00</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>dd82cf4d-953a-4bdc-a91c-2daad43943f9</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue - Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>indonesias-digital-economy-generates-27-billion-usb-in-tax-revenue---vietnam-vietnamplus-01c364</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue&amp;nbsp;&amp;nbsp;Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-12-30T04:31:34+00:00</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32f96776-9fb7-42a5-934f-3c85ca93f17e</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue - Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>indonesias-digital-economy-generates-27-billion-usb-in-tax-revenue---vietnam-vietnamplus-6f0fe8</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue&amp;nbsp;&amp;nbsp;Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-12-30T04:31:34+00:00</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>6f861a5e-c165-4770-a937-fcb758d09017</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue - Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>indonesias-digital-economy-generates-27-billion-usb-in-tax-revenue---vietnam-vietnamplus-1ec817</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue&amp;nbsp;&amp;nbsp;Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-12-30T04:31:34+00:00</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>02129f42-99d5-45e3-8c77-d2713ed5cde5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue - Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>indonesias-digital-economy-generates-27-billion-usb-in-tax-revenue---vietnam-vietnamplus-3d22ed</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue&amp;nbsp;&amp;nbsp;Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-12-30T04:31:34+00:00</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>88a70133-ea8e-4981-b3df-e57b13d3b704</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue - Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>indonesias-digital-economy-generates-27-billion-usb-in-tax-revenue---vietnam-vietnamplus-42c5bb</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue&amp;nbsp;&amp;nbsp;Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-12-30T04:31:34+00:00</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>f55424c9-d8d3-485b-8939-359da7cb0d31</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue - Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>indonesias-digital-economy-generates-27-billion-usb-in-tax-revenue---vietnam-vietnamplus-963015</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Indonesia’s digital economy generates 2.7 billion USB in tax revenue&amp;nbsp;&amp;nbsp;Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Vietnam+ (VietnamPlus)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-12-30T04:31:34+00:00</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>c26c7c26-67d4-4c8e-92dd-ac52fa9f89d5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>18-countries-offering-digital-nomad-visas-for-indians-fe225e</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians&amp;nbsp;&amp;nbsp;Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>feb253c4-6c07-44e7-a617-1c27e5d642fb</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>18-countries-offering-digital-nomad-visas-for-indians-8e9cb2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians&amp;nbsp;&amp;nbsp;Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>8bc0eb92-c00e-4cef-99cc-67e9f1f0929c</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>18-countries-offering-digital-nomad-visas-for-indians-6a795c</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians&amp;nbsp;&amp;nbsp;Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>898d796a-0b14-4014-ab46-b87dfb87e768</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>18-countries-offering-digital-nomad-visas-for-indians-a93da6</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians&amp;nbsp;&amp;nbsp;Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1ee0128c-1c65-4390-8d3c-4d76fb5d9f77</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>18-countries-offering-digital-nomad-visas-for-indians-b3be72</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians&amp;nbsp;&amp;nbsp;Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>5a828243-fc46-437a-a8d3-72a501820ee1</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>18-countries-offering-digital-nomad-visas-for-indians-d7f48f</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians&amp;nbsp;&amp;nbsp;Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>0fab42d8-6888-48cf-ac4f-276630c980b7</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>18-countries-offering-digital-nomad-visas-for-indians-dda4a1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>18 countries offering digital nomad visas for Indians&amp;nbsp;&amp;nbsp;Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Condé Nast Traveller India</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-12-30T02:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5cb3ca2c-f8d7-4b3e-a3e9-b7fe2dba0f3f</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Indonesia Collects IDR 12.24 Trillion in Digital Economy Taxes - RRI.co.id</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>indonesia-collects-idr-1224-trillion-in-digital-economy-taxes---rricoid-7d2216</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Indonesia Collects IDR 12.24 Trillion in Digital Economy Taxes&amp;nbsp;&amp;nbsp;RRI.co.id</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>RRI.co.id</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-12-29T12:19:00+00:00</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44aae096-5e1d-494e-9a9d-7ba00f040dc2</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Christmas and New Year Visa Tips for Bali Tourists: Ensure Smooth Travel</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>christmas-and-new-year-visa-tips-for-bali-tourists-ensure-smooth-travel-88435b</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Christmas and New Year Visa Tips for Bali Tourists: Ensure Smooth Travel&amp;nbsp;&amp;nbsp;Travel And Tour World</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Travel And Tour World</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>lifestyle</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-12-29T05:45:24+00:00</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>fdf4f2af-f28e-4408-8695-0aec49f6efdd</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Indonesia collects $2.6b in digital taxes, OpenAI named as collector</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>indonesia-collects-26b-in-digital-taxes-openai-named-as-collector-998fe8</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Indonesia collects $2.6b in digital taxes, OpenAI named as collector&amp;nbsp;&amp;nbsp;Tech in Asia</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Tech in Asia</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>tech</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-12-29T02:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7a30f80b-85c7-474a-98b9-cb836a515c36</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Investments in Asia: Phuket and Bali enter the global real estate league</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>investments-in-asia-phuket-and-bali-enter-the-global-real-estate-league-1cb6ed</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Investments in Asia: Phuket and Bali enter the global real estate league&amp;nbsp;&amp;nbsp;MSN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>MSN</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>approved</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-12-28T21:19:05+00:00</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -434,14 +2897,1087 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cost_visa</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>renewable</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>foreign_eligible</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bebas Visa Wisata (Visa Free)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Visa Free</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Visa on Arrival (VOA)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VOA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>IDR 500,000</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Visa Kunjungan Wisata (Tourism Visit)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60 days</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>IDR 2,300,000</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C18</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Visa Kunjungan 90 Hari (90 Days Visit)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>90 days</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>IDR 5,500,000</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Visa Kunjungan Bisnis (Business Visit)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60 days</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>IDR 3,600,000</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>61</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Visa Kunjungan Pemerintah/Resmi (Official Visit)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60-180 days</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>IDR 4,800,000 (60 days) / IDR 5,800,000 (180 days)</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>78</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>C22A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Academic Internship Visa</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>60-180 days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>IDR 4,800,000 (60d) - 5,800,000 (180d)</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:14:03.951416+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>79</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>C22B</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Skills Development Internship Visa</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60-180 days</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>IDR 4,800,000 (60d) - 5,800,000 (180d)</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:14:03.952323+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>C7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Visa Kunjungan Keluarga (Family Visit)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60 days</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>IDR 4,500,000</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>77</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C7A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Music &amp; Performance Visa</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30 days</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>IDR 4,500,000</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:14:03.950489+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>75</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Multiple Entry Visit Visa (Tourism/Family)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1-2 years</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>IDR 4,000,000 (1yr) - 6,000,000 (2yr)</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:14:03.946298+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Business Investigation Visa (Multiple Entry)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1-2 years</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>IDR 7,500,000 (1Y) / IDR 10,000,000 (2Y)</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>76</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Multiple Entry Business Visa</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1-2 years</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Visit</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>IDR 4,000,000 (1yr) - 6,000,000 (2yr)</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:14:03.949520+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>E23</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Working KITAS (IMTA/RPTKA)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1-2 years</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KITAS</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>IDR 34,500,000 (offshore) / IDR 36,000,000 (onshore)</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>E24</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Freelance KITAS (Independent Worker)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1-2 years</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KITAS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>IDR 25,800,000 (offshore) / IDR 27,500,000 (onshore)</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>65</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>E26</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Spouse KITAS (Indonesian Marriage)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1-2 years</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KITAS</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>IDR 11,000,000 (1Y offshore) / IDR 15,000,000 (2Y offshore)</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>E28A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Investor KITAS (PT PMA Director/Commissioner)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2 years</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KITAS</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>IDR 17,000,000 (offshore) / IDR 19,000,000 (onshore)</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>67</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>E31</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Dependent KITAS (Family of KITAS Holder)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1-2 years</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KITAS</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>IDR 11,000,000 (1Y offshore) / IDR 15,000,000 (2Y offshore)</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>68</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>E33E</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Retirement KITAS (Lanjut Usia 55+)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1 year</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KITAS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>IDR 14,000,000 (offshore) / IDR 16,000,000 (onshore)</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>69</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>E33G</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Digital Nomad KITAS (Remote Worker)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1 year</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KITAS</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>IDR 13,000,000 (offshore) / IDR 14,000,000 (onshore)</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>71</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KITAP-DEP</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dependent KITAP + MERP</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KITAP</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>IDR 30,000,000 (plus ACC IDR 3,000,000)</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>81</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KITAP-FAM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Family KITAP + MERP (Indonesian Citizen Family)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KITAP</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>IDR 33,000,000</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:14:03.954137+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>70</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KITAP-INV</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Investor KITAP + MERP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KITAP</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>IDR 50,000,000 (plus ACC IDR 5,000,000)</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>72</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KITAP-RET</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Retirement KITAP + MERP</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KITAP</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>IDR 45,000,000</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-12-31T18:26:00.805741+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>80</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KITAP-WORK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Working KITAP + MERP (Permanent Residence)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5 years</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>KITAP</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>IDR 55,000,000</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-12-31T19:14:03.953240+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -452,14 +3988,1497 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>category_group</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>required_for</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>has_expiry</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>sort_order</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>passport</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Passport</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>kitas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>KITAS (Kartu Izin Tinggal Terbatas)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>kitap</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>KITAP (Kartu Izin Tinggal Tetap)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>visa_kunjungan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Visa Kunjungan (Visit Visa)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>voa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Visa on Arrival</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>itas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ITAS (Izin Tinggal Terbatas)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>39</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>itap</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ITAP (Izin Tinggal Tetap)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>rptka</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>RPTKA (Work Permit)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>imta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>IMTA (Work Permit Card)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>merp</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MERP (Exit Re-entry Permit)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>sponsor_letter</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Sponsor Letter</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>domicile_letter</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Domicile Letter (SKTT)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>45</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>stm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>STM (Surat Tanda Melapor)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>immigration</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13</v>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>nib</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NIB (Nomor Induk Berusaha)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>20</v>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>akta_pendirian</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Akta Pendirian (Deed of Establishment)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>21</v>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sk_kemenkumham</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>SK Kemenkumham (Legal Approval)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>22</v>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>npwp_company</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NPWP Perusahaan (Company Tax ID)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>23</v>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>surat_domisili</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Surat Domisili (Company Domicile)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>oss_certificate</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>OSS Certificate</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>izin_usaha</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Izin Usaha (Business License)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>26</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>53</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>virtual_office</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Virtual Office Agreement</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>pma</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27</v>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>npwp</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NPWP (Personal Tax ID)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>30</v>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>efin</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>EFIN (Electronic Filing ID)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31</v>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>19</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>spt_tahunan</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SPT Tahunan (Annual Tax Return)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>32</v>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>e_spt</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>e-SPT Filing</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>33</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>20</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>lkpm</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>LKPM (Investment Report)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>34</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bpjs_tk</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BPJS Ketenagakerjaan</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>35</v>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bpjs_kes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BPJS Kesehatan</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>36</v>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>61</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>skt</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SKT (Tax Registration Letter)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>tax</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>37</v>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>23</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Photo/Avatar</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>40</v>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>24</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cv</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CV/Resume</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>41</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>25</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>diploma</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Diploma/Certificate</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>42</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>26</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>marriage_cert</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Marriage Certificate</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>43</v>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>27</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>birth_cert</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Birth Certificate</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>44</v>
+      </c>
+      <c r="I35" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>28</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>police_clearance</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Police Clearance (SKCK)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>45</v>
+      </c>
+      <c r="I36" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>68</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>bank_statement</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Bank Statement</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>46</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>69</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>health_cert</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Health Certificate</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>personal</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>47</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>contract</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Contract/Agreement</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>50</v>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>30</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>invoice</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>51</v>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>receipt</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Receipt/Payment Proof</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>52</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>32</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Other Document</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>99</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -470,14 +5489,107 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>categories</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>confirmed</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ce463138-4a30-46a3-b45a-8d4c09bf52ff</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>test2@example.com</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Test User</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>["immigration"]</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>weekly</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>blog</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2025-12-31T13:32:59.268399+00:00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>